--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10031" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="760">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68565" uniqueCount="760">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31404,115 +31404,115 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15">
@@ -34304,115 +34304,115 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="40">
@@ -34420,115 +34420,115 @@
         <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -34536,115 +34536,115 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>107</v>
+        <v>426</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>107</v>
+        <v>464</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>107</v>
+        <v>485</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>107</v>
+        <v>506</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>107</v>
+        <v>549</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>107</v>
+        <v>572</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>107</v>
+        <v>591</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>107</v>
+        <v>610</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>107</v>
+        <v>629</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>107</v>
+        <v>650</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>107</v>
+        <v>692</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>107</v>
+        <v>711</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>107</v>
+        <v>730</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>107</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42">
